--- a/doc/wiki/resources/EM_pipeline_time_mem_storage.xlsx
+++ b/doc/wiki/resources/EM_pipeline_time_mem_storage.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>Data Transfer</t>
   </si>
@@ -324,9 +324,6 @@
     <t>*6 - depends on surface area, current compressed size given</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>Estimated Iter Time /rTB (days)</t>
   </si>
   <si>
@@ -352,6 +349,15 @@
   </si>
   <si>
     <t>*8 - when reading chunks from external HD, USB 3.0</t>
+  </si>
+  <si>
+    <t>*9</t>
+  </si>
+  <si>
+    <t>*9 - penalty for concurrency &gt; 1(~4s / cube)  and &lt; 4 (~10s / cube) per processes per clone</t>
+  </si>
+  <si>
+    <t>measure again with 2 processes per clone, NOTE this is 6 probs when incl ECS</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="252">
+  <cellStyleXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -706,6 +712,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -764,7 +774,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="252">
+  <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -957,6 +967,8 @@
     <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1016,6 +1028,8 @@
     <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3123,7 +3137,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3319,7 +3333,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X5" t="s">
         <v>49</v>
@@ -3390,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -3420,7 +3434,7 @@
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3501,9 +3515,6 @@
       </c>
     </row>
     <row r="17" spans="3:25">
-      <c r="N17" t="s">
-        <v>101</v>
-      </c>
       <c r="P17" t="s">
         <v>69</v>
       </c>
@@ -3516,16 +3527,10 @@
         <v>46</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18">
-        <v>12</v>
+        <v>110</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>53</v>
@@ -3538,16 +3543,16 @@
         <v>12</v>
       </c>
       <c r="R18">
-        <f>0.8</f>
-        <v>0.8</v>
+        <f>0.85</f>
+        <v>0.85</v>
       </c>
       <c r="S18">
         <f>Q18*R18</f>
-        <v>9.6000000000000014</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="T18">
         <f>S18/$Q$6</f>
-        <v>19.200000000000003</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="X18" t="s">
         <v>60</v>
@@ -3560,6 +3565,14 @@
       <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="H19" s="3">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+      <c r="J19" s="9">
+        <f>2^40/2^21*I18/60/60/H19</f>
+        <v>72.817777777777764</v>
+      </c>
       <c r="O19" s="8" t="s">
         <v>52</v>
       </c>
@@ -3571,16 +3584,16 @@
         <v>8</v>
       </c>
       <c r="R19">
-        <f>0.8</f>
-        <v>0.8</v>
+        <f>0.85</f>
+        <v>0.85</v>
       </c>
       <c r="S19">
         <f>Q19*R19</f>
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T19">
         <f>S19/$Q$6</f>
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="Y19" t="s">
         <v>65</v>
@@ -3598,11 +3611,11 @@
       </c>
       <c r="U20">
         <f>U$9*$T18</f>
-        <v>55.924053333333333</v>
+        <v>59.419306666666657</v>
       </c>
       <c r="V20">
         <f>V$9*$T18</f>
-        <v>31.068918518518526</v>
+        <v>33.010725925925925</v>
       </c>
     </row>
     <row r="21" spans="3:25">
@@ -3617,11 +3630,11 @@
       </c>
       <c r="U21">
         <f>U$9*$T19</f>
-        <v>37.28270222222222</v>
+        <v>39.612871111111104</v>
       </c>
       <c r="V21">
         <f>V$9*$T19</f>
-        <v>20.712612345679016</v>
+        <v>22.007150617283951</v>
       </c>
       <c r="X21" t="s">
         <v>71</v>
@@ -3883,7 +3896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="3:24">
+    <row r="33" spans="3:25">
       <c r="P33">
         <v>48</v>
       </c>
@@ -3899,7 +3912,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="3:24">
+    <row r="34" spans="3:25">
       <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
@@ -3940,7 +3953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="3:24">
+    <row r="35" spans="3:25">
       <c r="C35" s="3" t="s">
         <v>82</v>
       </c>
@@ -3948,7 +3961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="3:24">
+    <row r="36" spans="3:25">
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
@@ -3967,7 +3980,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="3:24">
+    <row r="37" spans="3:25">
       <c r="F37" s="3" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +3988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="3:24">
+    <row r="38" spans="3:25">
       <c r="C38" s="3" t="s">
         <v>84</v>
       </c>
@@ -4013,10 +4026,10 @@
         <v>0.8</v>
       </c>
       <c r="X38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25">
       <c r="C39" s="3" t="s">
         <v>82</v>
       </c>
@@ -4027,10 +4040,10 @@
         <v>96</v>
       </c>
       <c r="X39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25">
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
@@ -4045,55 +4058,61 @@
         <f>V$9*$T38</f>
         <v>1.2945382716049385</v>
       </c>
-    </row>
-    <row r="41" spans="3:24">
+      <c r="X40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25">
       <c r="F41" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="3:24">
+      <c r="Y41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25">
       <c r="W42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25">
       <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V43">
-        <f>(J11+J15+N18+V20+N22+N28+V36+N34+N38+V40)/24</f>
-        <v>6.9994995473251036</v>
+        <f>(J11+J15+J19+V20+N22+N28+V36+N34+N38+V40)/24</f>
+        <v>9.6144822633744838</v>
       </c>
       <c r="W43">
         <f>(V20+V25+V36+V40)/24/V43</f>
-        <v>0.20074483984713337</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24">
+        <v>0.15456079868949757</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25">
       <c r="P44" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V44">
         <f>V43+(J6+2*V9)/24</f>
-        <v>8.1659324691358037</v>
-      </c>
-    </row>
-    <row r="45" spans="3:24">
+        <v>10.780915185185183</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25">
       <c r="C45" s="3" t="s">
         <v>87</v>
       </c>
       <c r="P45" s="18"/>
     </row>
-    <row r="46" spans="3:24">
+    <row r="46" spans="3:25">
       <c r="P46" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V46">
         <f>T6+T18+T22+T28+T34+T38</f>
-        <v>21.940000000000005</v>
+        <v>23.14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/wiki/resources/EM_pipeline_time_mem_storage.xlsx
+++ b/doc/wiki/resources/EM_pipeline_time_mem_storage.xlsx
@@ -3136,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3648,7 +3648,7 @@
         <v>78</v>
       </c>
       <c r="H22" s="3">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>52</v>
@@ -3661,11 +3661,11 @@
       </c>
       <c r="M22">
         <f>$Q$6*H22/2^10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N22">
         <f>K22/M22</f>
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>83</v>
       </c>
       <c r="H28" s="3">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="K28">
         <v>72</v>
@@ -3781,11 +3781,11 @@
       </c>
       <c r="M28">
         <f>$Q$6*H28/2^10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N28">
         <f>K28/M28</f>
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -3917,7 +3917,7 @@
         <v>81</v>
       </c>
       <c r="H34" s="3">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="K34">
         <f>1/3</f>
@@ -3928,11 +3928,11 @@
       </c>
       <c r="M34">
         <f>$Q$6*H34/2^10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N34">
         <f>K34/M34</f>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q34">
         <f>4*$Q$6</f>
@@ -3996,7 +3996,7 @@
         <v>85</v>
       </c>
       <c r="H38" s="17">
-        <v>4096</v>
+        <v>1024</v>
       </c>
       <c r="K38">
         <v>4.5</v>
@@ -4006,11 +4006,11 @@
       </c>
       <c r="M38">
         <f>$Q$6*H38/2^10</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N38">
         <f>K38/M38</f>
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>98</v>
@@ -4084,11 +4084,11 @@
       </c>
       <c r="V43">
         <f>(J11+J15+J19+V20+N22+N28+V36+N34+N38+V40)/24</f>
-        <v>9.6144822633744838</v>
+        <v>13.791565596707819</v>
       </c>
       <c r="W43">
         <f>(V20+V25+V36+V40)/24/V43</f>
-        <v>0.15456079868949757</v>
+        <v>0.10774861252647752</v>
       </c>
     </row>
     <row r="44" spans="3:25">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="V44">
         <f>V43+(J6+2*V9)/24</f>
-        <v>10.780915185185183</v>
+        <v>14.957998518518519</v>
       </c>
     </row>
     <row r="45" spans="3:25">
